--- a/fire.xlsx
+++ b/fire.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -73,11 +73,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +141,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -219,6 +224,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -253,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,14 +435,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="M166" sqref="M166"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45325</v>
       </c>
@@ -517,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45326</v>
       </c>
@@ -558,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45327</v>
       </c>
@@ -599,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45327</v>
       </c>
@@ -640,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45328</v>
       </c>
@@ -681,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45328</v>
       </c>
@@ -722,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45329</v>
       </c>
@@ -763,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45329</v>
       </c>
@@ -804,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45330</v>
       </c>
@@ -845,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45331</v>
       </c>
@@ -886,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45332</v>
       </c>
@@ -927,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45333</v>
       </c>
@@ -968,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45334</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45335</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45336</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45337</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45338</v>
       </c>
@@ -1173,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45339</v>
       </c>
@@ -1214,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45340</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45341</v>
       </c>
@@ -1296,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45342</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45343</v>
       </c>
@@ -1378,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45356</v>
       </c>
@@ -1419,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45357</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45358</v>
       </c>
@@ -1501,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45371</v>
       </c>
@@ -1542,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45372</v>
       </c>
@@ -1583,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45373</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45374</v>
       </c>
@@ -1665,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45375</v>
       </c>
@@ -1706,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45376</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45377</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45378</v>
       </c>
@@ -1829,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45379</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45380</v>
       </c>
@@ -1911,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45381</v>
       </c>
@@ -1952,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45382</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45385</v>
       </c>
@@ -2034,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45386</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45387</v>
       </c>
@@ -2116,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45387</v>
       </c>
@@ -2157,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45387</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45388</v>
       </c>
@@ -2239,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45388</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45389</v>
       </c>
@@ -2321,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45415</v>
       </c>
@@ -2353,16 +2362,16 @@
         <v>17</v>
       </c>
       <c r="K47">
-        <v>5.95</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="L47">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="M47">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45416</v>
       </c>
@@ -2394,16 +2403,16 @@
         <v>17</v>
       </c>
       <c r="K48">
-        <v>5.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L48">
-        <v>11</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M48">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45417</v>
       </c>
@@ -2444,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45417</v>
       </c>
@@ -2485,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45418</v>
       </c>
@@ -2526,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45418</v>
       </c>
@@ -2567,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45425</v>
       </c>
@@ -2608,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45426</v>
       </c>
@@ -2649,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45427</v>
       </c>
@@ -2690,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45427</v>
       </c>
@@ -2731,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45428</v>
       </c>
@@ -2772,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45429</v>
       </c>
@@ -2813,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45430</v>
       </c>
@@ -2854,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45430</v>
       </c>
@@ -2895,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45431</v>
       </c>
@@ -2936,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45431</v>
       </c>
@@ -2977,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45432</v>
       </c>
@@ -3018,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45433</v>
       </c>
@@ -3059,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45434</v>
       </c>
@@ -3100,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45434</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45435</v>
       </c>
@@ -3182,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45436</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45437</v>
       </c>
@@ -3264,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45437</v>
       </c>
@@ -3305,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45438</v>
       </c>
@@ -3346,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45438</v>
       </c>
@@ -3387,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45439</v>
       </c>
@@ -3428,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45440</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45441</v>
       </c>
@@ -3510,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45441</v>
       </c>
@@ -3551,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45442</v>
       </c>
@@ -3592,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45443</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45448</v>
       </c>
@@ -3674,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45449</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45456</v>
       </c>
@@ -3756,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45457</v>
       </c>
@@ -3797,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45458</v>
       </c>
@@ -3838,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>45458</v>
       </c>
@@ -3879,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45459</v>
       </c>
@@ -3920,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>45459</v>
       </c>
@@ -3961,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45460</v>
       </c>
@@ -4002,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>45461</v>
       </c>
@@ -4043,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45462</v>
       </c>
@@ -4084,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>45462</v>
       </c>
@@ -4125,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45463</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45464</v>
       </c>
@@ -4207,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>45465</v>
       </c>
@@ -4248,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45465</v>
       </c>
@@ -4289,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>45466</v>
       </c>
@@ -4330,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45466</v>
       </c>
@@ -4371,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45467</v>
       </c>
@@ -4412,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45468</v>
       </c>
@@ -4453,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45469</v>
       </c>
@@ -4494,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45469</v>
       </c>
@@ -4535,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45470</v>
       </c>
@@ -4576,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45471</v>
       </c>
@@ -4617,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45472</v>
       </c>
@@ -4658,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45472</v>
       </c>
@@ -4699,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45473</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45473</v>
       </c>
@@ -4781,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45478</v>
       </c>
@@ -4822,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>45479</v>
       </c>
@@ -4863,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45509</v>
       </c>
@@ -4904,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>45509</v>
       </c>
@@ -4945,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45510</v>
       </c>
@@ -4986,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>45510</v>
       </c>
@@ -5027,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45540</v>
       </c>
@@ -5068,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>45541</v>
       </c>
@@ -5109,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45541</v>
       </c>
@@ -5150,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>45570</v>
       </c>
@@ -5191,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45571</v>
       </c>
@@ -5232,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>45601</v>
       </c>
@@ -5273,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>45601</v>
       </c>
@@ -5314,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>45602</v>
       </c>
@@ -5355,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>45631</v>
       </c>
@@ -5396,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>45631</v>
       </c>
@@ -5437,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>45632</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>45703</v>
       </c>
@@ -5519,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>45704</v>
       </c>
@@ -5560,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>45705</v>
       </c>
@@ -5601,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>45706</v>
       </c>
@@ -5642,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>45707</v>
       </c>
@@ -5683,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>45707</v>
       </c>
@@ -5724,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>45708</v>
       </c>
@@ -5765,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>45709</v>
       </c>
@@ -5806,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>45710</v>
       </c>
@@ -5847,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>45710</v>
       </c>
@@ -5888,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>45711</v>
       </c>
@@ -5929,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>45711</v>
       </c>
@@ -5970,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>45712</v>
       </c>
@@ -6011,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>45713</v>
       </c>
@@ -6052,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>45714</v>
       </c>
@@ -6093,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>45728</v>
       </c>
@@ -6134,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>45729</v>
       </c>
@@ -6175,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>45730</v>
       </c>
@@ -6216,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>45731</v>
       </c>
@@ -6257,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>45732</v>
       </c>
@@ -6298,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>45738</v>
       </c>
@@ -6339,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>45739</v>
       </c>
@@ -6380,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>45740</v>
       </c>
@@ -6421,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>45741</v>
       </c>
@@ -6462,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>45742</v>
       </c>
@@ -6503,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>45750</v>
       </c>
@@ -6544,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>45751</v>
       </c>
@@ -6585,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>45752</v>
       </c>
@@ -6626,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>45753</v>
       </c>
@@ -6667,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>45754</v>
       </c>
@@ -6708,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>45760</v>
       </c>
@@ -6749,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>45761</v>
       </c>
@@ -6790,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>45762</v>
       </c>
@@ -6831,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>45763</v>
       </c>
@@ -6872,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>45765</v>
       </c>
@@ -6913,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>45766</v>
       </c>
@@ -6954,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>45767</v>
       </c>
@@ -6995,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>45768</v>
       </c>
@@ -7027,16 +7036,16 @@
         <v>17</v>
       </c>
       <c r="K161">
-        <v>3.65</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="L161">
-        <v>7.300000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="M161">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>45769</v>
       </c>
@@ -7068,16 +7077,16 @@
         <v>17</v>
       </c>
       <c r="K162">
-        <v>4.600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="L162">
-        <v>9.200000000000003</v>
+        <v>0.92</v>
       </c>
       <c r="M162">
-        <v>18.40000000000001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -7109,16 +7118,16 @@
         <v>17</v>
       </c>
       <c r="K163">
-        <v>5.399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="L163">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="M163">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -7150,16 +7159,16 @@
         <v>17</v>
       </c>
       <c r="K164">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="L164">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="M164">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -7191,16 +7200,16 @@
         <v>17</v>
       </c>
       <c r="K165">
-        <v>6.050000000000001</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="L165">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="M165">
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>45693</v>
       </c>
@@ -7232,16 +7241,16 @@
         <v>17</v>
       </c>
       <c r="K166">
-        <v>1.750000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="L166">
-        <v>3.500000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="M166">
-        <v>7.000000000000004</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>45781</v>
       </c>
@@ -7282,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>45791</v>
       </c>
@@ -7323,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>45791</v>
       </c>
@@ -7364,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>45792</v>
       </c>
@@ -7405,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>45792</v>
       </c>
@@ -7446,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>45793</v>
       </c>
@@ -7487,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>45793</v>
       </c>
@@ -7528,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>45794</v>
       </c>
@@ -7569,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>45794</v>
       </c>
@@ -7610,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>45795</v>
       </c>
@@ -7651,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>45795</v>
       </c>
@@ -7692,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>45798</v>
       </c>
@@ -7733,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>45799</v>
       </c>
@@ -7774,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>45800</v>
       </c>
@@ -7815,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>45801</v>
       </c>
@@ -7856,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>45802</v>
       </c>
@@ -7897,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>45812</v>
       </c>
@@ -7938,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>45821</v>
       </c>
@@ -7979,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>45822</v>
       </c>
@@ -8020,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>45823</v>
       </c>
@@ -8061,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>45842</v>
       </c>
@@ -8102,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>45843</v>
       </c>
@@ -8143,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>45844</v>
       </c>
@@ -8184,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>45872</v>
       </c>
@@ -8225,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>45873</v>
       </c>
@@ -8266,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>45874</v>
       </c>
@@ -8307,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>45875</v>
       </c>
@@ -8348,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>45903</v>
       </c>
@@ -8389,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>45904</v>
       </c>
@@ -8430,7 +8439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>45905</v>
       </c>
@@ -8471,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>45906</v>
       </c>
@@ -8512,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>45933</v>
       </c>
@@ -8553,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>45935</v>
       </c>
@@ -8594,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>45936</v>
       </c>
@@ -8635,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>45964</v>
       </c>
@@ -8676,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>45966</v>
       </c>
@@ -8717,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>45967</v>
       </c>
@@ -8758,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>45967</v>
       </c>
@@ -8799,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>45994</v>
       </c>
@@ -8840,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>45995</v>
       </c>
@@ -8881,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>45997</v>
       </c>
